--- a/biology/Botanique/Square_Colbert_(Reims)/Square_Colbert_(Reims).xlsx
+++ b/biology/Botanique/Square_Colbert_(Reims)/Square_Colbert_(Reims).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le square Colbert est un square situé dans le centre-ville de Reims, en France. D'une superficie de 1,1 ha[1], il longe le boulevard du Général-Leclerc[2], au centre des promenades de Reims[3],[4]. Il est organisé autour d'une statue monumentale de Jean-Baptiste Colbert, ministre de Louis XIV[5].
+Le square Colbert est un square situé dans le centre-ville de Reims, en France. D'une superficie de 1,1 ha, il longe le boulevard du Général-Leclerc, au centre des promenades de Reims,. Il est organisé autour d'une statue monumentale de Jean-Baptiste Colbert, ministre de Louis XIV.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Percé en 1828, le square est aménagé et baptisé en 1860, alors que la gare est en cours de construction[6],[3]. Il se trouve à l'emplacement de l'ancienne place du Boulingrin Central, créée en 1730[6].
-En 1904, un bâtiment est construit entre le boulevard Louis-Roederer et le square Colbert pour accueillir les bureaux des chemins de fer de la Banlieue de Reims (C.B.R.)[6]. Il est détruit entre 1921 et 1934[6].
-En 1919, une horlogerie de la rue Colbert détruite par la guerre s'installe provisoirement aux Basses Promenades[6].
-En 1945, on suggère de remplacer la statue de Colbert par le monument aux Martyrs de la Résistance. Cette proposition n'est pas acceptée[6].
-Le square est rénové de fin 2018 à la mi-2019[7] : la statue est rénovée, le périmètre du square dégagé et les allées redimensionnées et équipées d'un banc circulaire de 190 m[8]. Le square sera aussi réaménagé en 2020[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Percé en 1828, le square est aménagé et baptisé en 1860, alors que la gare est en cours de construction,. Il se trouve à l'emplacement de l'ancienne place du Boulingrin Central, créée en 1730.
+En 1904, un bâtiment est construit entre le boulevard Louis-Roederer et le square Colbert pour accueillir les bureaux des chemins de fer de la Banlieue de Reims (C.B.R.). Il est détruit entre 1921 et 1934.
+En 1919, une horlogerie de la rue Colbert détruite par la guerre s'installe provisoirement aux Basses Promenades.
+En 1945, on suggère de remplacer la statue de Colbert par le monument aux Martyrs de la Résistance. Cette proposition n'est pas acceptée.
+Le square est rénové de fin 2018 à la mi-2019 : la statue est rénovée, le périmètre du square dégagé et les allées redimensionnées et équipées d'un banc circulaire de 190 m. Le square sera aussi réaménagé en 2020.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec plus de 25 000 plantes, le square Colbert est le jardin le plus fleuri de la ville[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec plus de 25 000 plantes, le square Colbert est le jardin le plus fleuri de la ville.
 </t>
         </is>
       </c>
